--- a/data/trans_orig/P25A$medico-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P25A$medico-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>46509</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35934</v>
+        <v>35892</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>57368</v>
+        <v>57279</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3707161911667458</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2864242682056065</v>
+        <v>0.2860946115906018</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4572766187605614</v>
+        <v>0.456565681950166</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -764,19 +764,19 @@
         <v>2773</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6586</v>
+        <v>8155</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05356917614043079</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01738842955125908</v>
+        <v>0.01749379699693573</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1272241732277824</v>
+        <v>0.1575379383033454</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>52</v>
@@ -785,19 +785,19 @@
         <v>49282</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>37226</v>
+        <v>38342</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>60831</v>
+        <v>62439</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.27807689894685</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2100514192445655</v>
+        <v>0.2163468253169592</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3432468649649801</v>
+        <v>0.3523182498783198</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>25565</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17441</v>
+        <v>18247</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>35087</v>
+        <v>36035</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2037771639331087</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1390226121073558</v>
+        <v>0.1454434695533682</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2796761082671875</v>
+        <v>0.2872346035159062</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -835,19 +835,19 @@
         <v>10362</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5345</v>
+        <v>5890</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17056</v>
+        <v>16817</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2001696541226139</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1032576699295294</v>
+        <v>0.113782262815823</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3294773408491144</v>
+        <v>0.3248637261930866</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>36</v>
@@ -856,19 +856,19 @@
         <v>35927</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>25421</v>
+        <v>25849</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>48066</v>
+        <v>48048</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2027234029336781</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1434398302499232</v>
+        <v>0.145853664799379</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2712153653607197</v>
+        <v>0.2711138144923657</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>4601</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1182</v>
+        <v>1624</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11725</v>
+        <v>10950</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03667410402068978</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.009423810191501132</v>
+        <v>0.01294540520122728</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09346074897709598</v>
+        <v>0.08728541587370538</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -906,19 +906,19 @@
         <v>3218</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>941</v>
+        <v>916</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8753</v>
+        <v>8116</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06215755634631637</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01818568757272863</v>
+        <v>0.01769955998630816</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1690775739098593</v>
+        <v>0.1567879394218732</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -927,19 +927,19 @@
         <v>7819</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3218</v>
+        <v>3123</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>15671</v>
+        <v>15362</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04411787260406939</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01815656160028277</v>
+        <v>0.01761992336455227</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08842520238980736</v>
+        <v>0.08667928205094329</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>11663</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5977</v>
+        <v>6139</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19706</v>
+        <v>19625</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09296330862941939</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04763863628917091</v>
+        <v>0.04893150048240727</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1570784150999499</v>
+        <v>0.1564308942709277</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -977,19 +977,19 @@
         <v>3924</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9157</v>
+        <v>9166</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07580717273219781</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01936677095014934</v>
+        <v>0.01948221785109102</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1768939782638414</v>
+        <v>0.1770586233697214</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -998,19 +998,19 @@
         <v>15587</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8894</v>
+        <v>8796</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24141</v>
+        <v>24242</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08795196621897583</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0501838609703207</v>
+        <v>0.04963351223425236</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1362174124530225</v>
+        <v>0.1367854189909287</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>3716</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>932</v>
+        <v>939</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8781</v>
+        <v>9516</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02961829997859033</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.007429036552487032</v>
+        <v>0.007486625004953219</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06999245779030809</v>
+        <v>0.07585117367716114</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5019</v>
+        <v>5583</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01963933964455756</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09695626631307411</v>
+        <v>0.1078530926284271</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -1069,19 +1069,19 @@
         <v>4732</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1723</v>
+        <v>1757</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9745</v>
+        <v>10877</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02670342524026588</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.009722627756836922</v>
+        <v>0.009916477764186275</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05498990029737243</v>
+        <v>0.06137505713096964</v>
       </c>
     </row>
     <row r="9">
@@ -1098,19 +1098,19 @@
         <v>51825</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>40847</v>
+        <v>40896</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>63729</v>
+        <v>64155</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4130929831176354</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3255854766134855</v>
+        <v>0.3259752488096072</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.507981361426542</v>
+        <v>0.5113715543713908</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>36</v>
@@ -1119,19 +1119,19 @@
         <v>36517</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>29901</v>
+        <v>29050</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>42690</v>
+        <v>42357</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7054064130456242</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5775995885268413</v>
+        <v>0.561167333664915</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.824654922275821</v>
+        <v>0.8182164885491685</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>85</v>
@@ -1140,19 +1140,19 @@
         <v>88342</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>73650</v>
+        <v>73690</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>102136</v>
+        <v>101184</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4984783343013824</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4155790497560492</v>
+        <v>0.4158032537976755</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5763134117832442</v>
+        <v>0.5709439738645706</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>58375</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>46622</v>
+        <v>45421</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>72746</v>
+        <v>72737</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2964012830192322</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2367232600534183</v>
+        <v>0.2306257645629521</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3693698805421421</v>
+        <v>0.369322498997653</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1194,19 +1194,19 @@
         <v>10522</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5297</v>
+        <v>5648</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17313</v>
+        <v>17619</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1493240411848072</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07516425877004805</v>
+        <v>0.08014891793234229</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2456944723697694</v>
+        <v>0.2500353004613577</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>71</v>
@@ -1215,19 +1215,19 @@
         <v>68898</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>56769</v>
+        <v>56504</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>84022</v>
+        <v>83460</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.257644759275426</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2122912374089797</v>
+        <v>0.2112972060502573</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3142046025665845</v>
+        <v>0.3121024679461771</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>39689</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>28734</v>
+        <v>29198</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>51922</v>
+        <v>51474</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2015216206106235</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1458954300728675</v>
+        <v>0.148254115563954</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2636328742629109</v>
+        <v>0.2613583309012652</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>11</v>
@@ -1265,19 +1265,19 @@
         <v>11010</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5955</v>
+        <v>5862</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17903</v>
+        <v>17754</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1562456125205537</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08450847558580549</v>
+        <v>0.08318485836504161</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.254059156964716</v>
+        <v>0.2519570453488159</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>52</v>
@@ -1286,19 +1286,19 @@
         <v>50699</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>39641</v>
+        <v>39419</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>63885</v>
+        <v>64822</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1895908782287193</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1482403762057366</v>
+        <v>0.1474087236248824</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2389016397157314</v>
+        <v>0.2424057484013465</v>
       </c>
     </row>
     <row r="12">
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6652</v>
+        <v>7495</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01090611162941775</v>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03377523207842473</v>
+        <v>0.0380540684141129</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -1336,19 +1336,19 @@
         <v>7116</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3119</v>
+        <v>3178</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13446</v>
+        <v>13741</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1009912761419502</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04426088231721027</v>
+        <v>0.04509978695906326</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1908224939953128</v>
+        <v>0.1950018989564224</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -1357,19 +1357,19 @@
         <v>9264</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4211</v>
+        <v>4294</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>16739</v>
+        <v>17203</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03464457567625617</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01574828713412738</v>
+        <v>0.01605615736106062</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06259649118492562</v>
+        <v>0.06433161773039381</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>13245</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7969</v>
+        <v>7602</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21492</v>
+        <v>20910</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06725219688588212</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04046386812204651</v>
+        <v>0.03860041505558431</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1091249268117453</v>
+        <v>0.1061693823321952</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -1407,19 +1407,19 @@
         <v>4021</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1045</v>
+        <v>1057</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9342</v>
+        <v>9316</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05705918519401861</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01482419798650824</v>
+        <v>0.01500609413003235</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1325687632731685</v>
+        <v>0.132209382812795</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -1428,19 +1428,19 @@
         <v>17266</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10726</v>
+        <v>10394</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>26665</v>
+        <v>26458</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06456622253166262</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04010924046475475</v>
+        <v>0.03886761980087757</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09971304602851801</v>
+        <v>0.09894035386331174</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>4659</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10526</v>
+        <v>10966</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0236566020620101</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.008662453627041357</v>
+        <v>0.008664824096379333</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05344574621162954</v>
+        <v>0.0556813172741179</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -1478,19 +1478,19 @@
         <v>5683</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1937</v>
+        <v>1950</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11402</v>
+        <v>11995</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08064678659768912</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02749144200683345</v>
+        <v>0.02767133940312135</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1618146191941775</v>
+        <v>0.1702294034094955</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>11</v>
@@ -1499,19 +1499,19 @@
         <v>10342</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4986</v>
+        <v>5584</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>17345</v>
+        <v>17878</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0386741629883122</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01864481207499983</v>
+        <v>0.0208826511722351</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06486053858214878</v>
+        <v>0.06685545240972347</v>
       </c>
     </row>
     <row r="15">
@@ -1528,19 +1528,19 @@
         <v>108020</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>93638</v>
+        <v>94624</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>121005</v>
+        <v>122836</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.5484742140612796</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4754455194330072</v>
+        <v>0.4804535244577251</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6144041965844289</v>
+        <v>0.6236995272217583</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>39</v>
@@ -1549,19 +1549,19 @@
         <v>40279</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>32158</v>
+        <v>31492</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>49371</v>
+        <v>47549</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.5716126336499852</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.4563628769464905</v>
+        <v>0.4469075546393606</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.7006303300471572</v>
+        <v>0.6747796624537842</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>145</v>
@@ -1570,19 +1570,19 @@
         <v>148300</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>132699</v>
+        <v>131444</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>163407</v>
+        <v>162507</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.554571450431767</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.4962332871410826</v>
+        <v>0.4915384246653854</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.6110642292159348</v>
+        <v>0.6076989067883497</v>
       </c>
     </row>
     <row r="16">
@@ -1603,19 +1603,19 @@
         <v>40457</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>30078</v>
+        <v>29689</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>51818</v>
+        <v>51998</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1855713219826615</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1379636151160109</v>
+        <v>0.1361779822514088</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2376827383926156</v>
+        <v>0.2385054561464427</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1624,19 +1624,19 @@
         <v>4702</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1203</v>
+        <v>1182</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11339</v>
+        <v>11255</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05427268861594444</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01388821358997787</v>
+        <v>0.01364353356052322</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1308697233266608</v>
+        <v>0.1299071793778228</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>47</v>
@@ -1645,19 +1645,19 @@
         <v>45159</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>33800</v>
+        <v>34682</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>57992</v>
+        <v>58404</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1482313091511812</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1109444316475527</v>
+        <v>0.1138387051021235</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1903521898222035</v>
+        <v>0.1917042361447046</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>34136</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>25151</v>
+        <v>24697</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>45192</v>
+        <v>46612</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1565791977838777</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1153626771047771</v>
+        <v>0.1132819611308849</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2072884142598914</v>
+        <v>0.2138021639684548</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -1695,19 +1695,19 @@
         <v>6846</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2832</v>
+        <v>2989</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12885</v>
+        <v>13264</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07901915607792931</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03268823916990544</v>
+        <v>0.03449625373750725</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1487168042141412</v>
+        <v>0.1530912430558176</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>42</v>
@@ -1716,19 +1716,19 @@
         <v>40983</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>29913</v>
+        <v>29130</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>53404</v>
+        <v>52520</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1345219007789541</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0981858277263611</v>
+        <v>0.0956159755717734</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1752931533056882</v>
+        <v>0.1723921361860847</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>6753</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2866</v>
+        <v>2885</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13381</v>
+        <v>12852</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03097487336525936</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01314627185907303</v>
+        <v>0.01323160037578689</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06137551264660968</v>
+        <v>0.05895228923127757</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>12</v>
@@ -1766,19 +1766,19 @@
         <v>13352</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7268</v>
+        <v>7193</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>21138</v>
+        <v>21144</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1541025315658067</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08388758611089218</v>
+        <v>0.08301827083936111</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2439668650420776</v>
+        <v>0.2440399365366962</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>19</v>
@@ -1787,19 +1787,19 @@
         <v>20105</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>12064</v>
+        <v>12732</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>30423</v>
+        <v>30740</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06599114291223547</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03960009428255302</v>
+        <v>0.0417928322283384</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09985991258082827</v>
+        <v>0.100901677087271</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>16949</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9810</v>
+        <v>10214</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>26468</v>
+        <v>27031</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07774138899563184</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04499807145181073</v>
+        <v>0.04684871724186033</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.121406228443713</v>
+        <v>0.1239854509450229</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -1837,19 +1837,19 @@
         <v>6997</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2743</v>
+        <v>2968</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13575</v>
+        <v>14091</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08076244200860727</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03165716333286682</v>
+        <v>0.03425801406166933</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1566791999338221</v>
+        <v>0.1626338098829735</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>22</v>
@@ -1858,19 +1858,19 @@
         <v>23946</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14936</v>
+        <v>16170</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>34708</v>
+        <v>36337</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07860054613517355</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04902483920880792</v>
+        <v>0.05307764649504619</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1139268032083931</v>
+        <v>0.119271476000644</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>10580</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5442</v>
+        <v>5640</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18176</v>
+        <v>18106</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04852980832717359</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02496159740979455</v>
+        <v>0.02586801057549466</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08337156096886859</v>
+        <v>0.08304796508067049</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -1908,19 +1908,19 @@
         <v>2817</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7950</v>
+        <v>8202</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03251371611712581</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01057804418409859</v>
+        <v>0.0104822573675537</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09175658801646852</v>
+        <v>0.09467144156882355</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>14</v>
@@ -1929,19 +1929,19 @@
         <v>13397</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>7402</v>
+        <v>7618</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>21747</v>
+        <v>21446</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04397499253588484</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02429721948087663</v>
+        <v>0.02500549787645675</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07138328045430281</v>
+        <v>0.07039580413126524</v>
       </c>
     </row>
     <row r="21">
@@ -1958,19 +1958,19 @@
         <v>147065</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>133545</v>
+        <v>132491</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>160497</v>
+        <v>160698</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6745651086883793</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6125502572679112</v>
+        <v>0.6077188963420322</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.736176277914237</v>
+        <v>0.7370972211742854</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>60</v>
@@ -1979,19 +1979,19 @@
         <v>62808</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>54107</v>
+        <v>53188</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>70817</v>
+        <v>70409</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.7249235892473854</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6245016464235573</v>
+        <v>0.6138872162552312</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.8173580849477768</v>
+        <v>0.8126490707357041</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>200</v>
@@ -2000,19 +2000,19 @@
         <v>209873</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>193604</v>
+        <v>193312</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>226052</v>
+        <v>224204</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6888865548605966</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6354875214382868</v>
+        <v>0.634526663406254</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7419941431237567</v>
+        <v>0.735927094811974</v>
       </c>
     </row>
     <row r="22">
@@ -2033,19 +2033,19 @@
         <v>20578</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13484</v>
+        <v>13344</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29251</v>
+        <v>28429</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2643381502318884</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1732115933258397</v>
+        <v>0.1714072715999934</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3757362847173777</v>
+        <v>0.365175105901662</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7823</v>
+        <v>6096</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05569172109981427</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2192899004221783</v>
+        <v>0.1708927564525164</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>22</v>
@@ -2075,19 +2075,19 @@
         <v>22565</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14768</v>
+        <v>14611</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>31616</v>
+        <v>33086</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1987749831565225</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1300944229224632</v>
+        <v>0.1287057322093419</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2785021035031331</v>
+        <v>0.2914523623553604</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>17475</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>11153</v>
+        <v>10714</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>26063</v>
+        <v>25689</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2244777502233245</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1432584467445157</v>
+        <v>0.1376305743747662</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3347856866828419</v>
+        <v>0.3299836712039204</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>7</v>
@@ -2125,19 +2125,19 @@
         <v>7223</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3877</v>
+        <v>3129</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>13193</v>
+        <v>12548</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2024954292054756</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1086851657643186</v>
+        <v>0.08770273707713173</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3698542556593462</v>
+        <v>0.3517658561252452</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>24</v>
@@ -2146,19 +2146,19 @@
         <v>24699</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>16244</v>
+        <v>17145</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>34845</v>
+        <v>34019</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2175702244554847</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1430965501663483</v>
+        <v>0.1510335139092765</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3069496074905307</v>
+        <v>0.2996685263477983</v>
       </c>
     </row>
     <row r="24">
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3589</v>
+        <v>3633</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01043036345114153</v>
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04609614962847778</v>
+        <v>0.04666799917727133</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -2196,19 +2196,19 @@
         <v>2734</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7075</v>
+        <v>7490</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07663386473541721</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02214696846056375</v>
+        <v>0.02234805895667926</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1983262136198179</v>
+        <v>0.2099763517782966</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -2217,19 +2217,19 @@
         <v>3546</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>8624</v>
+        <v>8699</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03123355300837862</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.007228314262833661</v>
+        <v>0.007208576685574932</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07596770786086224</v>
+        <v>0.07662502621187245</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>5721</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1984</v>
+        <v>2648</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11597</v>
+        <v>11682</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07348203697892174</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02548551406357964</v>
+        <v>0.03401893436095634</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1489659215225467</v>
+        <v>0.1500602551706857</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -2267,19 +2267,19 @@
         <v>5625</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1995</v>
+        <v>2086</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10937</v>
+        <v>11040</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.157692815745042</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05593743224477671</v>
+        <v>0.05847756223647976</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3065851938529544</v>
+        <v>0.3094972702456941</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -2288,19 +2288,19 @@
         <v>11346</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6178</v>
+        <v>5854</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>19464</v>
+        <v>18836</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09994367057004792</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05442102421102005</v>
+        <v>0.05156664077393221</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1714611276603558</v>
+        <v>0.1659218863408781</v>
       </c>
     </row>
     <row r="26">
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5268</v>
+        <v>4700</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01320012185608859</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06766405647074622</v>
+        <v>0.06037178302189311</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -2338,19 +2338,19 @@
         <v>3127</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8064</v>
+        <v>8410</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08765529022856031</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02281936230607607</v>
+        <v>0.02290933708526104</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2260522728122633</v>
+        <v>0.2357723054940858</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4</v>
@@ -2359,19 +2359,19 @@
         <v>4154</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1063</v>
+        <v>1039</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>10139</v>
+        <v>9720</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03659624065828887</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.009366030846973581</v>
+        <v>0.009148821132035129</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.089310097200229</v>
+        <v>0.08562013428436763</v>
       </c>
     </row>
     <row r="27">
@@ -2388,19 +2388,19 @@
         <v>49332</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>39776</v>
+        <v>40541</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>56877</v>
+        <v>57107</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.6336870237111362</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5109362251505156</v>
+        <v>0.5207696420246064</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7306038558943643</v>
+        <v>0.7335590361441604</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>23</v>
@@ -2409,19 +2409,19 @@
         <v>23142</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>16761</v>
+        <v>17002</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>28375</v>
+        <v>28468</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.648746629640139</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.469863994528749</v>
+        <v>0.4766093210264677</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7954467201705669</v>
+        <v>0.7980611061402227</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>73</v>
@@ -2430,19 +2430,19 @@
         <v>72474</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>62429</v>
+        <v>61555</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>82157</v>
+        <v>82294</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.6384192180924135</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.5499291049811398</v>
+        <v>0.5422340159124255</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7237171561660123</v>
+        <v>0.7249263118971248</v>
       </c>
     </row>
     <row r="28">
@@ -2463,19 +2463,19 @@
         <v>165919</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>144244</v>
+        <v>144683</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>186197</v>
+        <v>187684</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2683626458692864</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.233303314274939</v>
+        <v>0.2340147169290155</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3011601363999467</v>
+        <v>0.3035658243202483</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>19</v>
@@ -2484,19 +2484,19 @@
         <v>19984</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>12900</v>
+        <v>12143</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>29579</v>
+        <v>29120</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08171993776875162</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05275108059294829</v>
+        <v>0.04965614451738483</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1209531437388146</v>
+        <v>0.1190766336196674</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>192</v>
@@ -2505,19 +2505,19 @@
         <v>185904</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>164735</v>
+        <v>162357</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>209934</v>
+        <v>209808</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2154626317218236</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1909281877182916</v>
+        <v>0.1881715770946988</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2433138193637778</v>
+        <v>0.2431675567631517</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>116866</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>98250</v>
+        <v>98086</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>136332</v>
+        <v>136476</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1890221673822135</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1589120270595899</v>
+        <v>0.1586468942423454</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2205063071097356</v>
+        <v>0.2207391325610814</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>35</v>
@@ -2555,19 +2555,19 @@
         <v>35442</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>26251</v>
+        <v>25879</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>47507</v>
+        <v>47274</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1449295020337737</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1073471746395698</v>
+        <v>0.1058253156012975</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1942656546998494</v>
+        <v>0.1933150783994969</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>154</v>
@@ -2576,19 +2576,19 @@
         <v>152308</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>132476</v>
+        <v>133667</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>175988</v>
+        <v>176686</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1765250136253391</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1535391493277366</v>
+        <v>0.1549202158771062</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.203970020864188</v>
+        <v>0.2047785878714468</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>14314</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8116</v>
+        <v>8529</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>23488</v>
+        <v>23864</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0231516224035994</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01312771566011537</v>
+        <v>0.01379543647739988</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.037990132730206</v>
+        <v>0.03859769722262039</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>25</v>
@@ -2626,19 +2626,19 @@
         <v>26419</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>17932</v>
+        <v>17738</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>39678</v>
+        <v>37085</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1080345612000096</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.07332883678484964</v>
+        <v>0.07253605398655583</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1622517219159001</v>
+        <v>0.1516495580149146</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>39</v>
@@ -2647,19 +2647,19 @@
         <v>40733</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>29170</v>
+        <v>30107</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>54684</v>
+        <v>56257</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.04720993525656992</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03380845296157464</v>
+        <v>0.03489438890270118</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0633790328721389</v>
+        <v>0.0652019129509102</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>47577</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>36455</v>
+        <v>36527</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>62422</v>
+        <v>63275</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.07695253992586978</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05896350649939559</v>
+        <v>0.05908002127051283</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1009634460079042</v>
+        <v>0.102342402789221</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>19</v>
@@ -2697,19 +2697,19 @@
         <v>20568</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>12904</v>
+        <v>12838</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>31480</v>
+        <v>31797</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08410516477846969</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05276803045303691</v>
+        <v>0.05249635937120674</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1287277784736145</v>
+        <v>0.130026532947053</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>67</v>
@@ -2718,19 +2718,19 @@
         <v>68145</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>53745</v>
+        <v>53892</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>86577</v>
+        <v>86278</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.07897980345919903</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06229039584235844</v>
+        <v>0.06246065474582808</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1003428520183986</v>
+        <v>0.09999637813364272</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>19983</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>12246</v>
+        <v>12547</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>30191</v>
+        <v>29409</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03232052330867208</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01980724181633698</v>
+        <v>0.02029313379460681</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0488313152591912</v>
+        <v>0.04756610503740453</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>13</v>
@@ -2768,19 +2768,19 @@
         <v>12643</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>7033</v>
+        <v>6858</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>21175</v>
+        <v>21653</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.05170147796445732</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02876027775385101</v>
+        <v>0.02804386392118416</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.08658836383040351</v>
+        <v>0.08854338311676377</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>34</v>
@@ -2789,19 +2789,19 @@
         <v>32626</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>23202</v>
+        <v>22306</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>44862</v>
+        <v>43955</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0378136539319704</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02689087244162309</v>
+        <v>0.02585229484619248</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.05199505759565217</v>
+        <v>0.05094439751236409</v>
       </c>
     </row>
     <row r="33">
@@ -2818,19 +2818,19 @@
         <v>356242</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>331339</v>
+        <v>334148</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>379963</v>
+        <v>381801</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.5761952449928985</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5359164466952692</v>
+        <v>0.540460459252189</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6145619503221658</v>
+        <v>0.6175350287120039</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>158</v>
@@ -2839,19 +2839,19 @@
         <v>162746</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>145856</v>
+        <v>148244</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>176500</v>
+        <v>178046</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.6655033773448418</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.5964352600733062</v>
+        <v>0.6061988760547482</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.7217460642259538</v>
+        <v>0.728065894315739</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>503</v>
@@ -2860,19 +2860,19 @@
         <v>518989</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>487881</v>
+        <v>487795</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>546119</v>
+        <v>545437</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.6015077874060557</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.5654534695309608</v>
+        <v>0.5653542312069063</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.6329521552924086</v>
+        <v>0.6321610090458263</v>
       </c>
     </row>
     <row r="34">
@@ -3133,19 +3133,19 @@
         <v>38734</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27430</v>
+        <v>28445</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51514</v>
+        <v>50840</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1813748038686843</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1284429059589713</v>
+        <v>0.1331934849088834</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2412133799113134</v>
+        <v>0.2380592624798183</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -3154,19 +3154,19 @@
         <v>11214</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6060</v>
+        <v>5965</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18474</v>
+        <v>18503</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09904064826416116</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05351925508348171</v>
+        <v>0.05268142925849808</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1631628446054721</v>
+        <v>0.1634132694568864</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>48</v>
@@ -3175,19 +3175,19 @@
         <v>49949</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38285</v>
+        <v>39406</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63694</v>
+        <v>64902</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.152847196085978</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.117156190095004</v>
+        <v>0.120584835503625</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1949107160854705</v>
+        <v>0.1986064843377931</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>17489</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10508</v>
+        <v>10823</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27282</v>
+        <v>26407</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08189388058348541</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04920448720729859</v>
+        <v>0.05067735433492269</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1277468507131967</v>
+        <v>0.1236513413976814</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -3225,19 +3225,19 @@
         <v>3016</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8110</v>
+        <v>8163</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0266362005032864</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.008661208568030834</v>
+        <v>0.008655108839673452</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07162712292231718</v>
+        <v>0.07209724490268703</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>19</v>
@@ -3246,19 +3246,19 @@
         <v>20505</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>12798</v>
+        <v>12493</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>30402</v>
+        <v>29973</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06274788445665347</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03916237912350824</v>
+        <v>0.03823090792687968</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09303129275270636</v>
+        <v>0.09172096242402052</v>
       </c>
     </row>
     <row r="6">
@@ -3278,16 +3278,16 @@
         <v>3024</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15472</v>
+        <v>16410</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03723381700070934</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01416220557797378</v>
+        <v>0.01416137085779775</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07244909499910289</v>
+        <v>0.0768382199058103</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -3296,19 +3296,19 @@
         <v>5871</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1983</v>
+        <v>2018</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13130</v>
+        <v>13478</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05185522910858897</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01751608590531611</v>
+        <v>0.01782205310257093</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1159609571655157</v>
+        <v>0.1190358330040672</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>12</v>
@@ -3317,19 +3317,19 @@
         <v>13823</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>7752</v>
+        <v>7580</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>25412</v>
+        <v>24355</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04229992725325668</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02372210111469815</v>
+        <v>0.02319608523964299</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07776314289965502</v>
+        <v>0.07452954257576262</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>16744</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9657</v>
+        <v>9801</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27035</v>
+        <v>26200</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07840544162633103</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04521873872550564</v>
+        <v>0.04589410715254857</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1265921373670539</v>
+        <v>0.1226837489546468</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -3367,19 +3367,19 @@
         <v>9586</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3718</v>
+        <v>4095</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17220</v>
+        <v>17661</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08465889218306183</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03283697330432794</v>
+        <v>0.03617033243448943</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1520804003706766</v>
+        <v>0.1559754460394419</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -3388,19 +3388,19 @@
         <v>26330</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17517</v>
+        <v>17288</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>38324</v>
+        <v>37509</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08057217283844006</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05360317993989029</v>
+        <v>0.05290209146499624</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1172733313987848</v>
+        <v>0.1147821362743626</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>5130</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1019</v>
+        <v>1122</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12481</v>
+        <v>12841</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02402134918108434</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.004771393584513545</v>
+        <v>0.005254506784407927</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05844205218974018</v>
+        <v>0.06012889796055852</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10758</v>
+        <v>11284</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02707202359376612</v>
@@ -3450,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09501580295103122</v>
+        <v>0.0996551582779529</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -3459,19 +3459,19 @@
         <v>8195</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3265</v>
+        <v>3184</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>17660</v>
+        <v>16844</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02507836424948133</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.009992348789749769</v>
+        <v>0.009744061842981532</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05404103724686764</v>
+        <v>0.05154423030426549</v>
       </c>
     </row>
     <row r="9">
@@ -3488,19 +3488,19 @@
         <v>146882</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>131982</v>
+        <v>133165</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>160679</v>
+        <v>160436</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6877775479471884</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6180106384425468</v>
+        <v>0.6235500456267009</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7523827870134434</v>
+        <v>0.7512436140054924</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>86</v>
@@ -3509,19 +3509,19 @@
         <v>91989</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>82972</v>
+        <v>82143</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>99928</v>
+        <v>99086</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.8124264481962127</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.7327957318367013</v>
+        <v>0.7254751175979284</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8825415988535599</v>
+        <v>0.8751079061543827</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>220</v>
@@ -3530,19 +3530,19 @@
         <v>238871</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>221083</v>
+        <v>222123</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>253154</v>
+        <v>254899</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.7309666097738514</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6765343580888823</v>
+        <v>0.6797146329923727</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7746731243599393</v>
+        <v>0.7800141716107895</v>
       </c>
     </row>
     <row r="10">
@@ -3563,19 +3563,19 @@
         <v>57388</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>43047</v>
+        <v>43938</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>72102</v>
+        <v>71813</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2230885848195077</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1673399599235834</v>
+        <v>0.1708027837534943</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2802896621185774</v>
+        <v>0.2791634940058833</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -3584,19 +3584,19 @@
         <v>10496</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5520</v>
+        <v>5184</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18128</v>
+        <v>18568</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08335732536573191</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04384070898622341</v>
+        <v>0.04116620517049186</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1439650193530589</v>
+        <v>0.1474571608208299</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>59</v>
@@ -3605,19 +3605,19 @@
         <v>67884</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>52910</v>
+        <v>53359</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>85151</v>
+        <v>85848</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1771683620532973</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1380869442429354</v>
+        <v>0.1392593699431709</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2222326274832816</v>
+        <v>0.224051791259598</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>21440</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14077</v>
+        <v>13559</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>30993</v>
+        <v>32332</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08334727688679065</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05472133621533984</v>
+        <v>0.05270764910512985</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1204804496302677</v>
+        <v>0.1256885182201507</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>11</v>
@@ -3655,19 +3655,19 @@
         <v>11329</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6093</v>
+        <v>5834</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>19878</v>
+        <v>19107</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08997423358359023</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04838905404808773</v>
+        <v>0.04633204181182057</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1578627024628679</v>
+        <v>0.1517372025158569</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>32</v>
@@ -3676,19 +3676,19 @@
         <v>32770</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>23093</v>
+        <v>23729</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>44269</v>
+        <v>45417</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08552510974229235</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06026863587570903</v>
+        <v>0.06192934581681291</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1155358433132807</v>
+        <v>0.1185324889808112</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>3198</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8666</v>
+        <v>8718</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01243330026203567</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.00390408387312477</v>
+        <v>0.003925361567836337</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03368976709291248</v>
+        <v>0.03388937165124601</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -3726,19 +3726,19 @@
         <v>7020</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2972</v>
+        <v>3047</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13887</v>
+        <v>14050</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05575109877562535</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02359913620951752</v>
+        <v>0.02419711241786905</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1102856054859022</v>
+        <v>0.1115759338555116</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>10</v>
@@ -3747,19 +3747,19 @@
         <v>10219</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5129</v>
+        <v>5110</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>18151</v>
+        <v>18388</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02666893347153871</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01338613468909182</v>
+        <v>0.01333650427308723</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04737264448253212</v>
+        <v>0.04799125513371595</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>15507</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9148</v>
+        <v>9149</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25268</v>
+        <v>24620</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06028128720092719</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03556254934729671</v>
+        <v>0.03556515098112963</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09822798840585886</v>
+        <v>0.09570828302418512</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -3797,19 +3797,19 @@
         <v>10827</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5632</v>
+        <v>5230</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18853</v>
+        <v>18427</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08598046000404616</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04473073623795466</v>
+        <v>0.0415338372887613</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.149720996249257</v>
+        <v>0.1463395917382189</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>25</v>
@@ -3818,19 +3818,19 @@
         <v>26334</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>17476</v>
+        <v>17754</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>38260</v>
+        <v>37834</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06872686870244475</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04560872207989023</v>
+        <v>0.04633449636147126</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09985211892976792</v>
+        <v>0.0987419461081846</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>8499</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3900</v>
+        <v>3506</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16649</v>
+        <v>16080</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03303813752997117</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01516214475792995</v>
+        <v>0.01362775984243065</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06472268960489304</v>
+        <v>0.06250917054426652</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -3871,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6955</v>
+        <v>6446</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.015350839137455</v>
@@ -3880,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05523681718952023</v>
+        <v>0.05119336398155023</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>10</v>
@@ -3889,19 +3889,19 @@
         <v>10432</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5149</v>
+        <v>5540</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>17771</v>
+        <v>19404</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02722551775189309</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01343843082758517</v>
+        <v>0.01445966247243837</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04638068161567594</v>
+        <v>0.05064101074386254</v>
       </c>
     </row>
     <row r="15">
@@ -3918,19 +3918,19 @@
         <v>179405</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>162392</v>
+        <v>164739</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>193612</v>
+        <v>193734</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.6974172166006618</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.631282932583582</v>
+        <v>0.6404036787050247</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.752645073934552</v>
+        <v>0.7531205024726406</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>90</v>
@@ -3939,19 +3939,19 @@
         <v>97938</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>87612</v>
+        <v>87080</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>106287</v>
+        <v>105930</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.7777836577608771</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.6957811999379446</v>
+        <v>0.6915555235983006</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.8440877255021865</v>
+        <v>0.8412538832800552</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>261</v>
@@ -3960,19 +3960,19 @@
         <v>277343</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>257627</v>
+        <v>257963</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>293184</v>
+        <v>293618</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.7238282351188585</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.6723707090912403</v>
+        <v>0.6732481682914189</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.7651698549978728</v>
+        <v>0.7663027111071881</v>
       </c>
     </row>
     <row r="16">
@@ -3993,19 +3993,19 @@
         <v>49505</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>37457</v>
+        <v>37664</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>63654</v>
+        <v>64042</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2103598923375343</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1591633927203989</v>
+        <v>0.1600440690699683</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2704847466656832</v>
+        <v>0.2721318898302872</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -4014,19 +4014,19 @@
         <v>6983</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2943</v>
+        <v>3014</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12649</v>
+        <v>13589</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07142704745648584</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03009856885640427</v>
+        <v>0.03082350374641917</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1293706908305573</v>
+        <v>0.1389907127966862</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>54</v>
@@ -4035,19 +4035,19 @@
         <v>56488</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>42836</v>
+        <v>43335</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>71235</v>
+        <v>71329</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1695811638345864</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1285950587402393</v>
+        <v>0.1300936034419381</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2138523743760224</v>
+        <v>0.2141340287982015</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>33853</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>22342</v>
+        <v>24252</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>46327</v>
+        <v>49015</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1438509471162065</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09493771675317597</v>
+        <v>0.1030534336285262</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1968578904583654</v>
+        <v>0.2082792444400795</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -4085,19 +4085,19 @@
         <v>14030</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7596</v>
+        <v>7777</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>22722</v>
+        <v>23447</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.14349805237888</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07769067362143493</v>
+        <v>0.07954494770370267</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2324046029924902</v>
+        <v>0.2398204840243577</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>42</v>
@@ -4106,19 +4106,19 @@
         <v>47883</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>35220</v>
+        <v>35280</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>64686</v>
+        <v>62376</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1437473675868599</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1057316553290298</v>
+        <v>0.1059137213122458</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1941908734313144</v>
+        <v>0.1872555030306342</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>4965</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1957</v>
+        <v>1890</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11025</v>
+        <v>10449</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02109679532189155</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.008315367614787577</v>
+        <v>0.008031670765820662</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.046847157826077</v>
+        <v>0.04440279614190069</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>5</v>
@@ -4156,19 +4156,19 @@
         <v>5280</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2036</v>
+        <v>2012</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>11151</v>
+        <v>11019</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05399970834820899</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02082785290376811</v>
+        <v>0.02058364417617893</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1140512587823529</v>
+        <v>0.1127048517366157</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>10</v>
@@ -4177,19 +4177,19 @@
         <v>10244</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>5124</v>
+        <v>5319</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>18045</v>
+        <v>18364</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03075425938955011</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01538219510286022</v>
+        <v>0.0159672295782177</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05417264771634836</v>
+        <v>0.05512974453321652</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>19534</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12063</v>
+        <v>12274</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29632</v>
+        <v>29500</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08300375494503615</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05125917435313753</v>
+        <v>0.05215492211799838</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1259134112574457</v>
+        <v>0.1253558428014</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -4227,19 +4227,19 @@
         <v>4014</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>947</v>
+        <v>998</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9956</v>
+        <v>9282</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04105521751735357</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.009686273199022934</v>
+        <v>0.01020895687553789</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1018263307032628</v>
+        <v>0.09493795212818025</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>23</v>
@@ -4248,19 +4248,19 @@
         <v>23548</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15555</v>
+        <v>15350</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>34201</v>
+        <v>33667</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0706912739019552</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04669843860217084</v>
+        <v>0.04608303466600232</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.102674625850743</v>
+        <v>0.1010702785190537</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>13998</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7952</v>
+        <v>7784</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>22078</v>
+        <v>21629</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05948339674238728</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03378928532169689</v>
+        <v>0.03307492322038873</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09381424464372046</v>
+        <v>0.09190949674235796</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -4298,19 +4298,19 @@
         <v>4270</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1092</v>
+        <v>1069</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>11391</v>
+        <v>10110</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04367067092275561</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01116937387865833</v>
+        <v>0.01092992398017036</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1165022181781878</v>
+        <v>0.1034071273612533</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>18</v>
@@ -4319,19 +4319,19 @@
         <v>18268</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>11240</v>
+        <v>11148</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>27727</v>
+        <v>27656</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05484214107931928</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03374226360718146</v>
+        <v>0.0334658824351636</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08323849503808337</v>
+        <v>0.08302644412382197</v>
       </c>
     </row>
     <row r="21">
@@ -4348,19 +4348,19 @@
         <v>141741</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>126738</v>
+        <v>125891</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>157997</v>
+        <v>157569</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.602297412026641</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5385432210280586</v>
+        <v>0.5349460887695912</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6713734128084109</v>
+        <v>0.6695553391653086</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>65</v>
@@ -4369,19 +4369,19 @@
         <v>72966</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>63626</v>
+        <v>64724</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>81011</v>
+        <v>80535</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.7462902597918653</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6507670042431101</v>
+        <v>0.6619982659322775</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.8285808619562359</v>
+        <v>0.8237151569843554</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>201</v>
@@ -4390,19 +4390,19 @@
         <v>214706</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>197385</v>
+        <v>195384</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>232812</v>
+        <v>231600</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6445613219783284</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5925637283309952</v>
+        <v>0.5865548420985758</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6989179139592343</v>
+        <v>0.6952785169135928</v>
       </c>
     </row>
     <row r="22">
@@ -4423,19 +4423,19 @@
         <v>12005</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6181</v>
+        <v>6934</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19100</v>
+        <v>20360</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1157777812589292</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0596118350183328</v>
+        <v>0.06687623197424811</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1842074025586305</v>
+        <v>0.1963650832685538</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -4444,19 +4444,19 @@
         <v>5780</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1823</v>
+        <v>1167</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12962</v>
+        <v>13236</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1186501731573615</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03741773290920753</v>
+        <v>0.02394932763583198</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2660821040932869</v>
+        <v>0.2717004216584877</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
@@ -4465,19 +4465,19 @@
         <v>17785</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10146</v>
+        <v>11180</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>27041</v>
+        <v>28206</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.116695950999231</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06657696989052607</v>
+        <v>0.07335860826481629</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1774351983777894</v>
+        <v>0.1850735321051946</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>12394</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6416</v>
+        <v>6697</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>20954</v>
+        <v>21739</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1195301985662194</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06187875264479564</v>
+        <v>0.06458894331640826</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2020916754567404</v>
+        <v>0.2096618137313372</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -4515,19 +4515,19 @@
         <v>5745</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1735</v>
+        <v>1775</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>13187</v>
+        <v>13686</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1179193730210247</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03561795091693504</v>
+        <v>0.03643384806856347</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.270696289867731</v>
+        <v>0.2809319844432738</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>15</v>
@@ -4536,19 +4536,19 @@
         <v>18138</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>10715</v>
+        <v>10192</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>28871</v>
+        <v>29096</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1190152927578197</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07030926123577197</v>
+        <v>0.06687639374499456</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1894396628297902</v>
+        <v>0.1909164619549754</v>
       </c>
     </row>
     <row r="24">
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5288</v>
+        <v>5508</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.009929617772959231</v>
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05099803476728372</v>
+        <v>0.05311801218163316</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6356</v>
+        <v>5041</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01995651537663327</v>
@@ -4598,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1304733448006664</v>
+        <v>0.1034761233933247</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2</v>
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>6225</v>
+        <v>6264</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01313474934773593</v>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0408462692061742</v>
+        <v>0.04110164380515932</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>11465</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5065</v>
+        <v>4551</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>21892</v>
+        <v>20622</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1105703922199809</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04884977943513236</v>
+        <v>0.04389494971988234</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2111366416626584</v>
+        <v>0.1988893371086736</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -4657,19 +4657,19 @@
         <v>6936</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3252</v>
+        <v>2840</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>14097</v>
+        <v>13418</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1423681886770126</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06675002752908035</v>
+        <v>0.05828916403546382</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2893663052688458</v>
+        <v>0.2754370861862636</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>14</v>
@@ -4678,19 +4678,19 @@
         <v>18400</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9786</v>
+        <v>9851</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>27615</v>
+        <v>28620</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1207346649054236</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0642138563994242</v>
+        <v>0.06463749219279841</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1812011229153112</v>
+        <v>0.187793507181453</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>2789</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>821</v>
+        <v>846</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7351</v>
+        <v>8039</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02689657291882329</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.007918516349107356</v>
+        <v>0.008163470679597834</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0709007877692652</v>
+        <v>0.07752911699575026</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -4728,19 +4728,19 @@
         <v>3119</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>865</v>
+        <v>907</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8471</v>
+        <v>8264</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06402673279394927</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01775941722023092</v>
+        <v>0.01861412643878959</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1738862083183788</v>
+        <v>0.1696429864058585</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -4749,19 +4749,19 @@
         <v>5908</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1905</v>
+        <v>2041</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>11288</v>
+        <v>12829</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03876535352237376</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01250268447692634</v>
+        <v>0.01339480178823248</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07406960284409093</v>
+        <v>0.084175532408118</v>
       </c>
     </row>
     <row r="27">
@@ -4778,19 +4778,19 @@
         <v>78438</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>68241</v>
+        <v>67147</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>86570</v>
+        <v>86826</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.7564929034396227</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6581497350176428</v>
+        <v>0.6476009228252915</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8349272292864613</v>
+        <v>0.8373894487523836</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>31</v>
@@ -4799,19 +4799,19 @@
         <v>35833</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>28397</v>
+        <v>28318</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>42515</v>
+        <v>41754</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.7355583437414839</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.5829017446738752</v>
+        <v>0.5812904575398623</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8727135191661772</v>
+        <v>0.8570843684746614</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>99</v>
@@ -4820,19 +4820,19 @@
         <v>114271</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>102003</v>
+        <v>102301</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>124637</v>
+        <v>125051</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.7498011009554758</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.669302572463516</v>
+        <v>0.671254733560731</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8178183887588312</v>
+        <v>0.8205365245362031</v>
       </c>
     </row>
     <row r="28">
@@ -4853,19 +4853,19 @@
         <v>157632</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>135362</v>
+        <v>136019</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>181133</v>
+        <v>182840</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1946495499821348</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1671502042161955</v>
+        <v>0.1679614132968525</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2236693727073535</v>
+        <v>0.2257777149058281</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>32</v>
@@ -4874,19 +4874,19 @@
         <v>34474</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>23162</v>
+        <v>24011</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>46544</v>
+        <v>47747</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08939588985993815</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06006292986040491</v>
+        <v>0.0622648405697025</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1206959702970213</v>
+        <v>0.1238149025945198</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>177</v>
@@ -4895,19 +4895,19 @@
         <v>192106</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>166338</v>
+        <v>167943</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>217087</v>
+        <v>219094</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1606965517160352</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1391422392103007</v>
+        <v>0.1404841431262165</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1815933515787297</v>
+        <v>0.1832720451703962</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>85176</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>69224</v>
+        <v>69635</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>106764</v>
+        <v>107516</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1051790079206362</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08548006343850111</v>
+        <v>0.08598834473010637</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1318359263353334</v>
+        <v>0.1327645193279325</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>30</v>
@@ -4945,19 +4945,19 @@
         <v>34120</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>23340</v>
+        <v>23970</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>48779</v>
+        <v>48906</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08847759766453388</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06052492962284588</v>
+        <v>0.06215700625974524</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.126490713306777</v>
+        <v>0.1268211477438107</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>108</v>
@@ -4966,19 +4966,19 @@
         <v>119296</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>98358</v>
+        <v>98899</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>143786</v>
+        <v>144557</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09979142374723531</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08227635603518013</v>
+        <v>0.08272934861358336</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1202768187469618</v>
+        <v>0.1209218817560263</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>17144</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10610</v>
+        <v>10089</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>28751</v>
+        <v>27305</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02117054580830956</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01310132235332098</v>
+        <v>0.01245798062342115</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03550220542597073</v>
+        <v>0.03371761813354417</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>18</v>
@@ -5016,19 +5016,19 @@
         <v>19143</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>12105</v>
+        <v>11442</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>29523</v>
+        <v>29979</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04964135601221224</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03138906424793025</v>
+        <v>0.02966951354092226</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.07655651791004732</v>
+        <v>0.0777397389337043</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>34</v>
@@ -5037,19 +5037,19 @@
         <v>36288</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>25048</v>
+        <v>26101</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>50201</v>
+        <v>50249</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03035473349703489</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02095233959955834</v>
+        <v>0.02183341226165326</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04199284837713501</v>
+        <v>0.04203330693564433</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>63249</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>48684</v>
+        <v>48357</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>80613</v>
+        <v>79628</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0781027909425526</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.06011660800437398</v>
+        <v>0.05971308985598426</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.09954404143848906</v>
+        <v>0.09832783472391964</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>28</v>
@@ -5087,19 +5087,19 @@
         <v>31362</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>21190</v>
+        <v>21224</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>44612</v>
+        <v>43234</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08132570072849266</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0549473593168556</v>
+        <v>0.05503771031770304</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1156854050885234</v>
+        <v>0.1121111113980345</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>86</v>
@@ -5108,19 +5108,19 @@
         <v>94611</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>76851</v>
+        <v>76176</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>117131</v>
+        <v>115400</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.07914244552793021</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06428556861848018</v>
+        <v>0.06372095596436927</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.09798025899785937</v>
+        <v>0.09653258791974673</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>30416</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>20656</v>
+        <v>20210</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>43965</v>
+        <v>42813</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03755891647497668</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02550619799097089</v>
+        <v>0.02495665924499104</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05428922226372239</v>
+        <v>0.05286676970701547</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>11</v>
@@ -5158,19 +5158,19 @@
         <v>12387</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>6380</v>
+        <v>6332</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>21555</v>
+        <v>22335</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03212143546060585</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01654414878882798</v>
+        <v>0.01641913124542282</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.05589638926768579</v>
+        <v>0.05791790206618871</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>40</v>
@@ -5179,19 +5179,19 @@
         <v>42803</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>30832</v>
+        <v>31527</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>57371</v>
+        <v>59848</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03580487976747838</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02579129921806663</v>
+        <v>0.02637236577659163</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0479906603480908</v>
+        <v>0.05006291901082058</v>
       </c>
     </row>
     <row r="33">
@@ -5208,19 +5208,19 @@
         <v>546466</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>517693</v>
+        <v>518939</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>574011</v>
+        <v>572770</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.6747972317636046</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.6392662920250698</v>
+        <v>0.6408055236158395</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.7088107415196755</v>
+        <v>0.7072774556604174</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>272</v>
@@ -5229,19 +5229,19 @@
         <v>298725</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>280865</v>
+        <v>280047</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>313507</v>
+        <v>315577</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.7746364404162575</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.7283220117253134</v>
+        <v>0.7261999192660348</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.812967022743867</v>
+        <v>0.8183346471538352</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>781</v>
@@ -5250,19 +5250,19 @@
         <v>845192</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>811928</v>
+        <v>813139</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>878440</v>
+        <v>876562</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.7070036222524176</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.6791787954636707</v>
+        <v>0.680191208949479</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.7348156702600869</v>
+        <v>0.7332451224748787</v>
       </c>
     </row>
     <row r="34">
@@ -5523,19 +5523,19 @@
         <v>38024</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27849</v>
+        <v>27207</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>49480</v>
+        <v>49775</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2108943790232657</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1544598517102847</v>
+        <v>0.15089829386711</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2744303688487078</v>
+        <v>0.2760644901451059</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -5544,19 +5544,19 @@
         <v>12107</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7071</v>
+        <v>6136</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19575</v>
+        <v>19424</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1307697919431213</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07638045570194159</v>
+        <v>0.06627417972816006</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2114325864610424</v>
+        <v>0.2098034287822921</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>49</v>
@@ -5565,19 +5565,19 @@
         <v>50131</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38500</v>
+        <v>36528</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63966</v>
+        <v>63008</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1837104097438955</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.141086627817854</v>
+        <v>0.1338583108897917</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.234409638929173</v>
+        <v>0.2308995423241834</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>29245</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>20897</v>
+        <v>20341</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>40396</v>
+        <v>40708</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1622013892062637</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1158992955270198</v>
+        <v>0.1128173216275345</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.224049023387355</v>
+        <v>0.2257804393811624</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -5615,19 +5615,19 @@
         <v>15375</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9243</v>
+        <v>8979</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23903</v>
+        <v>23695</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1660678144528364</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09983325732357275</v>
+        <v>0.09698809238908011</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2581809943953305</v>
+        <v>0.2559347435142009</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>43</v>
@@ -5636,19 +5636,19 @@
         <v>44620</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>33405</v>
+        <v>33110</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>59054</v>
+        <v>57794</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1635131561551365</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1224137230993902</v>
+        <v>0.1213338558358077</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2164096446608874</v>
+        <v>0.2117899327578426</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>17355</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11025</v>
+        <v>10489</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26513</v>
+        <v>26604</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0962567371722695</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0611463072448552</v>
+        <v>0.05817338589279981</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1470505760684393</v>
+        <v>0.1475527133225055</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -5686,19 +5686,19 @@
         <v>12210</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6194</v>
+        <v>6875</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>21023</v>
+        <v>20725</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1318855169310243</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06690281297564811</v>
+        <v>0.07426144950770125</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2270774251833559</v>
+        <v>0.2238593841458163</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>28</v>
@@ -5707,19 +5707,19 @@
         <v>29565</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>20301</v>
+        <v>20630</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>42154</v>
+        <v>42949</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1083445580237475</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07439566906454573</v>
+        <v>0.07560076689051574</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1544780353017624</v>
+        <v>0.1573916028683468</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>24091</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15710</v>
+        <v>15808</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34051</v>
+        <v>34562</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1336157787297371</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08713310215451885</v>
+        <v>0.08767295581748603</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1888591386499564</v>
+        <v>0.191693084646907</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -5757,19 +5757,19 @@
         <v>5170</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1279</v>
+        <v>1267</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12601</v>
+        <v>12340</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05584533047081455</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01381425354956581</v>
+        <v>0.0136837164915486</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1361118231989759</v>
+        <v>0.1332919456976374</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -5778,19 +5778,19 @@
         <v>29261</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18364</v>
+        <v>20319</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>40315</v>
+        <v>41537</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1072305010845772</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06729652919125902</v>
+        <v>0.07446035340441025</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1477383643239529</v>
+        <v>0.1522145843362174</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>14107</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7881</v>
+        <v>8109</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>23507</v>
+        <v>23693</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07824260328315502</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04370750652925928</v>
+        <v>0.04497227751242026</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1303789502649527</v>
+        <v>0.1314066601758491</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -5828,19 +5828,19 @@
         <v>7076</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3007</v>
+        <v>2968</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13481</v>
+        <v>13401</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.076427944544886</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03247720630923139</v>
+        <v>0.03205769148537365</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1456095016919575</v>
+        <v>0.1447475109151988</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>20</v>
@@ -5849,19 +5849,19 @@
         <v>21183</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>13677</v>
+        <v>13685</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>31411</v>
+        <v>31517</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07762694173416877</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05012187552790257</v>
+        <v>0.05015059658492767</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1151083381953041</v>
+        <v>0.115495474326628</v>
       </c>
     </row>
     <row r="9">
@@ -5878,19 +5878,19 @@
         <v>98876</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>85289</v>
+        <v>84649</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>111902</v>
+        <v>111147</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.548396332890333</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4730362852523016</v>
+        <v>0.4694883472909529</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6206386515191495</v>
+        <v>0.6164551230866496</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>53</v>
@@ -5899,19 +5899,19 @@
         <v>58575</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>49782</v>
+        <v>49019</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>68054</v>
+        <v>68572</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.632693184645052</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.537711194448064</v>
+        <v>0.5294679961742945</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7350792358058453</v>
+        <v>0.740669809433037</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>150</v>
@@ -5920,19 +5920,19 @@
         <v>157452</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>141432</v>
+        <v>141543</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>174377</v>
+        <v>172279</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5769958316453883</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5182905701816823</v>
+        <v>0.5186954130983804</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6390200091323724</v>
+        <v>0.6313298359569199</v>
       </c>
     </row>
     <row r="10">
@@ -5953,19 +5953,19 @@
         <v>31370</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22013</v>
+        <v>23016</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42082</v>
+        <v>42854</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1942487475544717</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1363088840227647</v>
+        <v>0.1425176361960613</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2605818728382712</v>
+        <v>0.2653615725552653</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -5974,19 +5974,19 @@
         <v>7627</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3302</v>
+        <v>3162</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13982</v>
+        <v>14374</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0820132604909436</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03550976984948507</v>
+        <v>0.03400354989181127</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1503480647675055</v>
+        <v>0.1545678840481157</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>38</v>
@@ -5995,19 +5995,19 @@
         <v>38997</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>29128</v>
+        <v>28153</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>51339</v>
+        <v>51480</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.153235857822238</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1144556968102518</v>
+        <v>0.1106261595966148</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2017331305864188</v>
+        <v>0.2022890155623177</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>26439</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>18635</v>
+        <v>17899</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>38361</v>
+        <v>37435</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1637144419471298</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1153920010361552</v>
+        <v>0.1108325934233829</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2375376454026472</v>
+        <v>0.2318053695006813</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>11</v>
@@ -6045,19 +6045,19 @@
         <v>11966</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6806</v>
+        <v>6695</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>20184</v>
+        <v>19148</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1286756826801256</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07318519322337731</v>
+        <v>0.07198860642517442</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2170461624144191</v>
+        <v>0.2059044928184179</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>38</v>
@@ -6066,19 +6066,19 @@
         <v>38405</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>27311</v>
+        <v>28199</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>50882</v>
+        <v>50395</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1509106415826468</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1073188703921611</v>
+        <v>0.1108069006813676</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1999393105409564</v>
+        <v>0.1980255502552336</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>9174</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4751</v>
+        <v>4547</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17819</v>
+        <v>16222</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05680463813395203</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02942177803231798</v>
+        <v>0.02815831866127678</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1103395638284115</v>
+        <v>0.1004512941353094</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -6116,19 +6116,19 @@
         <v>10545</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5195</v>
+        <v>5525</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>18223</v>
+        <v>17484</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1133924888258928</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05586526995517706</v>
+        <v>0.05941596976783791</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1959579541424663</v>
+        <v>0.188009861177387</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>19</v>
@@ -6137,19 +6137,19 @@
         <v>19718</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>12429</v>
+        <v>12849</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>29511</v>
+        <v>29398</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07748286871265501</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0488404016269537</v>
+        <v>0.05048845544801465</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1159603751282714</v>
+        <v>0.115518470376072</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>12645</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6904</v>
+        <v>7297</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19980</v>
+        <v>21265</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07829797140564553</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04275017483566216</v>
+        <v>0.04518604390033469</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1237185510957856</v>
+        <v>0.1316796245930156</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -6187,19 +6187,19 @@
         <v>11377</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5758</v>
+        <v>5698</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18350</v>
+        <v>18788</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1223417974271523</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06191659700500184</v>
+        <v>0.06127691818740347</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.197318846392862</v>
+        <v>0.202029036012218</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>25</v>
@@ -6208,19 +6208,19 @@
         <v>24022</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16219</v>
+        <v>16102</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>34552</v>
+        <v>33976</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0943923870603243</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0637333132014706</v>
+        <v>0.06327216186395891</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1357687124656824</v>
+        <v>0.1335080717767806</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>9350</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4708</v>
+        <v>4777</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16238</v>
+        <v>16278</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05789893019730015</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02915367288641395</v>
+        <v>0.02958010837971172</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1005484441527204</v>
+        <v>0.1007967448083932</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -6261,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4749</v>
+        <v>4902</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01160957902600644</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05106462622497589</v>
+        <v>0.05271257896333904</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>11</v>
@@ -6279,19 +6279,19 @@
         <v>10430</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5466</v>
+        <v>5750</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>18860</v>
+        <v>18150</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04098395878286386</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02147770498491808</v>
+        <v>0.0225943333873807</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07410986193955024</v>
+        <v>0.0713198747826085</v>
       </c>
     </row>
     <row r="15">
@@ -6308,19 +6308,19 @@
         <v>96959</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>84353</v>
+        <v>84756</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>110494</v>
+        <v>109597</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.600391132059236</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5223332551320712</v>
+        <v>0.5248306959338458</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6842031671752181</v>
+        <v>0.6786467922237308</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>59</v>
@@ -6329,19 +6329,19 @@
         <v>62141</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>52340</v>
+        <v>52096</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>70927</v>
+        <v>70288</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.6682189196103526</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.5628238351605532</v>
+        <v>0.5602006148590213</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.7627002046821055</v>
+        <v>0.755827452205732</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>156</v>
@@ -6350,19 +6350,19 @@
         <v>159100</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>144092</v>
+        <v>142675</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>173996</v>
+        <v>173534</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.625176640140479</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.5662037887116147</v>
+        <v>0.5606346542987896</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.683708981239458</v>
+        <v>0.6818962117523503</v>
       </c>
     </row>
     <row r="16">
@@ -6383,19 +6383,19 @@
         <v>30453</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21112</v>
+        <v>21142</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42832</v>
+        <v>41071</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1960246426589426</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1358945814760833</v>
+        <v>0.136092460240753</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2757088213423378</v>
+        <v>0.2643729922713764</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -6404,19 +6404,19 @@
         <v>7322</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3132</v>
+        <v>3074</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13892</v>
+        <v>13901</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09027701942923304</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03861680093145904</v>
+        <v>0.03789889310121975</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1712746014722559</v>
+        <v>0.1713797425384409</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>36</v>
@@ -6425,19 +6425,19 @@
         <v>37775</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>28216</v>
+        <v>27239</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>50588</v>
+        <v>50143</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1597518446013547</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1193250583766586</v>
+        <v>0.1151922975483418</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2139371737162381</v>
+        <v>0.2120562317114847</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>22788</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14941</v>
+        <v>14256</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>32671</v>
+        <v>33724</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1466879750444952</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09617610057826363</v>
+        <v>0.09176716550141556</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2102997069148927</v>
+        <v>0.217080486048784</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -6475,19 +6475,19 @@
         <v>8380</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4070</v>
+        <v>4107</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15992</v>
+        <v>15507</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1033194771188211</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05018460326547197</v>
+        <v>0.05063631497230656</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1971624250787078</v>
+        <v>0.1911851929615302</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>31</v>
@@ -6496,19 +6496,19 @@
         <v>31169</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>20991</v>
+        <v>21780</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>43439</v>
+        <v>43005</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1318120211528248</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0887719308049478</v>
+        <v>0.0921061940295571</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1837025658544109</v>
+        <v>0.1818694145591729</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>12585</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6304</v>
+        <v>7284</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>21751</v>
+        <v>21680</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.08100848850348898</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04057697481519569</v>
+        <v>0.04688897618034904</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1400090789112798</v>
+        <v>0.1395533436832199</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -6546,19 +6546,19 @@
         <v>7640</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3745</v>
+        <v>3571</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>14155</v>
+        <v>13955</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09419448989205498</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04617552834269964</v>
+        <v>0.04402353047955574</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1745111483504846</v>
+        <v>0.1720442338853771</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>20</v>
@@ -6567,19 +6567,19 @@
         <v>20225</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>12838</v>
+        <v>13045</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>29519</v>
+        <v>30654</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0855314569726295</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05429300724493705</v>
+        <v>0.05516664796654042</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1248348896980866</v>
+        <v>0.1296358697512797</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>22687</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14145</v>
+        <v>15140</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>33575</v>
+        <v>33354</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1460376241529806</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09105279558274068</v>
+        <v>0.09745864679759826</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2161231630769508</v>
+        <v>0.2147009782677021</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -6617,19 +6617,19 @@
         <v>6007</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2628</v>
+        <v>2135</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12287</v>
+        <v>12471</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07405976610395659</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03239887334286465</v>
+        <v>0.02631918450402152</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1514840243064671</v>
+        <v>0.1537507934710597</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>28</v>
@@ -6638,19 +6638,19 @@
         <v>28694</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>19559</v>
+        <v>19074</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>40030</v>
+        <v>40429</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1213482909094466</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08271687224372987</v>
+        <v>0.08066509485578056</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1692864397072936</v>
+        <v>0.1709727476134331</v>
       </c>
     </row>
     <row r="20">
@@ -6670,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4971</v>
+        <v>4652</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.005989038055991255</v>
@@ -6679,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03199648883430167</v>
+        <v>0.02994569881024597</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5266</v>
+        <v>6150</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01331069795320447</v>
@@ -6700,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06492210724426355</v>
+        <v>0.07581902396948585</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -6712,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6544</v>
+        <v>7381</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.008500461790982032</v>
@@ -6721,7 +6721,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02767498801184445</v>
+        <v>0.03121383718958885</v>
       </c>
     </row>
     <row r="21">
@@ -6738,19 +6738,19 @@
         <v>105273</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>92238</v>
+        <v>92561</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>116733</v>
+        <v>116999</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6776383630125149</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5937301789918694</v>
+        <v>0.5958112142888748</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7514040359098021</v>
+        <v>0.7531172206640421</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>57</v>
@@ -6759,19 +6759,19 @@
         <v>60294</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>52388</v>
+        <v>52114</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>67213</v>
+        <v>67129</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.7433620486580457</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6458848307401392</v>
+        <v>0.6425121206183174</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.8286678933718765</v>
+        <v>0.8276274604667598</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>156</v>
@@ -6780,19 +6780,19 @@
         <v>165567</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>150675</v>
+        <v>149445</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>179384</v>
+        <v>178016</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.7001824344933664</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6372039197121079</v>
+        <v>0.6319998324789358</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7586153327597583</v>
+        <v>0.752828487068232</v>
       </c>
     </row>
     <row r="22">
@@ -6813,19 +6813,19 @@
         <v>15920</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9680</v>
+        <v>9371</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25059</v>
+        <v>25120</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1535451102679374</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09336305399976082</v>
+        <v>0.09038581943732145</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2416931583278824</v>
+        <v>0.2422802872203323</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -6834,19 +6834,19 @@
         <v>3019</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9187</v>
+        <v>8124</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04564969001980736</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01400893882141327</v>
+        <v>0.01391732154397313</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1389012558963793</v>
+        <v>0.1228374632640779</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>18</v>
@@ -6855,19 +6855,19 @@
         <v>18939</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>12096</v>
+        <v>12147</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>28583</v>
+        <v>28387</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1115235870410132</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07122810399726222</v>
+        <v>0.07152895702302084</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1683134217280454</v>
+        <v>0.167161172118714</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>15556</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8426</v>
+        <v>9177</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>24106</v>
+        <v>24200</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.150038353948731</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08126295246561541</v>
+        <v>0.08851028637589363</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2325041456988565</v>
+        <v>0.2334082452822593</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>9</v>
@@ -6905,19 +6905,19 @@
         <v>9087</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4488</v>
+        <v>4376</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>16345</v>
+        <v>15823</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1373888879948775</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06785567563989466</v>
+        <v>0.0661642829221241</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2471326091048834</v>
+        <v>0.2392297096951414</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>24</v>
@@ -6926,19 +6926,19 @@
         <v>24643</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>16454</v>
+        <v>17043</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>34868</v>
+        <v>36450</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1451118257776036</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09688735024981181</v>
+        <v>0.1003596971498983</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2053193326725606</v>
+        <v>0.2146395398270957</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>18212</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11142</v>
+        <v>10976</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>26469</v>
+        <v>27080</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1756568113904148</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1074641023290961</v>
+        <v>0.105864950478736</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2552926740051846</v>
+        <v>0.2611874332518289</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>11</v>
@@ -6976,19 +6976,19 @@
         <v>12865</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>6724</v>
+        <v>6887</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>21167</v>
+        <v>21331</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1945125281972806</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1016558191360596</v>
+        <v>0.104120856836002</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3200357637947938</v>
+        <v>0.3225163474451371</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>28</v>
@@ -6997,19 +6997,19 @@
         <v>31077</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>21827</v>
+        <v>21446</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>44543</v>
+        <v>42528</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1830004589700603</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1285321032187065</v>
+        <v>0.1262847284916821</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2622910608524767</v>
+        <v>0.250429826009507</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>10570</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4933</v>
+        <v>4658</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>19116</v>
+        <v>18990</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1019510383560709</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.047580144941413</v>
+        <v>0.04492638724071266</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.184372396259735</v>
+        <v>0.1831535959499922</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -7047,19 +7047,19 @@
         <v>4908</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1842</v>
+        <v>1868</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>9956</v>
+        <v>10024</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07420286879673785</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02785071825611632</v>
+        <v>0.02823815887224723</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1505332172209131</v>
+        <v>0.151550016437547</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>13</v>
@@ -7068,19 +7068,19 @@
         <v>15478</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>8831</v>
+        <v>8633</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>25895</v>
+        <v>25892</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0911440889140963</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05200302590155527</v>
+        <v>0.0508371886031975</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1524838408250112</v>
+        <v>0.1524677549841476</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>5996</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1906</v>
+        <v>2192</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>14492</v>
+        <v>14109</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.05783170190577142</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01838255280890542</v>
+        <v>0.02113837413033801</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1397758381221337</v>
+        <v>0.1360757270280356</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -7118,19 +7118,19 @@
         <v>5947</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2674</v>
+        <v>2726</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>12146</v>
+        <v>12074</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08992248966526133</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04043315777831552</v>
+        <v>0.04121074653331343</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1836358007674322</v>
+        <v>0.1825524604598335</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>11</v>
@@ -7139,19 +7139,19 @@
         <v>11944</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6283</v>
+        <v>6334</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>20724</v>
+        <v>20175</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07032995048856121</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0369949901357576</v>
+        <v>0.03729985242798936</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1220359413041729</v>
+        <v>0.1188000360944673</v>
       </c>
     </row>
     <row r="27">
@@ -7168,19 +7168,19 @@
         <v>63214</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>52369</v>
+        <v>51925</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>73060</v>
+        <v>72922</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.6096907266059052</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5050911679518648</v>
+        <v>0.5008122423421602</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7046505531377512</v>
+        <v>0.7033191064708069</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>47</v>
@@ -7189,19 +7189,19 @@
         <v>51211</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>44111</v>
+        <v>43697</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>57464</v>
+        <v>57035</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.7742876632215252</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.6669267076654781</v>
+        <v>0.6606787270104725</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8688291288339041</v>
+        <v>0.8623448498399359</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>107</v>
@@ -7210,19 +7210,19 @@
         <v>114425</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>100354</v>
+        <v>101031</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>126490</v>
+        <v>125173</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.6737955234468417</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.5909379181095302</v>
+        <v>0.5949256587179813</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7448454733755588</v>
+        <v>0.7370863390929242</v>
       </c>
     </row>
     <row r="28">
@@ -7243,19 +7243,19 @@
         <v>115767</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>96108</v>
+        <v>95539</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>135376</v>
+        <v>134536</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1926790611758965</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1599592549198922</v>
+        <v>0.1590116146707299</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2253151895414923</v>
+        <v>0.2239167293535961</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>29</v>
@@ -7264,19 +7264,19 @@
         <v>30075</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>20187</v>
+        <v>21116</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>41249</v>
+        <v>42278</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09036339472173077</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06065284537555097</v>
+        <v>0.06344467573705093</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1239347374163196</v>
+        <v>0.1270283784640497</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>141</v>
@@ -7285,19 +7285,19 @@
         <v>145842</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>123871</v>
+        <v>124687</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>168012</v>
+        <v>170929</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1562060272582743</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1326728185026939</v>
+        <v>0.1335471628541635</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1799510251884055</v>
+        <v>0.1830748589383095</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>94029</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>77143</v>
+        <v>76380</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>112549</v>
+        <v>112379</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1564979512827022</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1283937902262921</v>
+        <v>0.1271251344725056</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1873233611423687</v>
+        <v>0.1870402186711956</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>43</v>
@@ -7335,19 +7335,19 @@
         <v>44808</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>33306</v>
+        <v>32497</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>58813</v>
+        <v>59578</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1346291290203718</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1000695079928878</v>
+        <v>0.09763909680143669</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1767092714180075</v>
+        <v>0.179005631623026</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>136</v>
@@ -7356,19 +7356,19 @@
         <v>138836</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>118608</v>
+        <v>118019</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>162127</v>
+        <v>161967</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.148702250743824</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1270360130493057</v>
+        <v>0.1264050501197189</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1736479434640528</v>
+        <v>0.1734767119279279</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>57326</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>45133</v>
+        <v>43592</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>72910</v>
+        <v>72522</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.09541162668223059</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07511856387032828</v>
+        <v>0.07255243239842384</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1213486987179524</v>
+        <v>0.1207025792640484</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>40</v>
@@ -7406,19 +7406,19 @@
         <v>43260</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>32184</v>
+        <v>31973</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>57629</v>
+        <v>57752</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1299783941509864</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09669898529260083</v>
+        <v>0.09606545344579681</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1731505408362625</v>
+        <v>0.1735194269565013</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>95</v>
@@ -7427,19 +7427,19 @@
         <v>100586</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>81532</v>
+        <v>83643</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>121059</v>
+        <v>120667</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.107733834277636</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08732551522536144</v>
+        <v>0.08958719578664677</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1296613733788368</v>
+        <v>0.1292417621290347</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>69993</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>54639</v>
+        <v>55988</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>87245</v>
+        <v>89042</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1164948564492188</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09094008586139816</v>
+        <v>0.09318442370248005</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1452079087950653</v>
+        <v>0.148199281096771</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>27</v>
@@ -7477,19 +7477,19 @@
         <v>27462</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>18496</v>
+        <v>18262</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>38090</v>
+        <v>38906</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08251201244999044</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05557154869363048</v>
+        <v>0.05486880172907003</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.114444590529804</v>
+        <v>0.1168950096464082</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>92</v>
@@ -7498,19 +7498,19 @@
         <v>97456</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>80372</v>
+        <v>79256</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>118060</v>
+        <v>117657</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1043808032963093</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.08608277494164408</v>
+        <v>0.08488764133973331</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1264491627251546</v>
+        <v>0.1260172415197134</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>30384</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>20710</v>
+        <v>20010</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>41257</v>
+        <v>43053</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.05057016175852608</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03446912696991147</v>
+        <v>0.03330418816700476</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.06866713825627241</v>
+        <v>0.07165667198794408</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>15</v>
@@ -7548,19 +7548,19 @@
         <v>15182</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>9023</v>
+        <v>9136</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>23423</v>
+        <v>24867</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.04561698409968226</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02710986058281041</v>
+        <v>0.02745049722721882</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.07037694517662203</v>
+        <v>0.0747154124852856</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>44</v>
@@ -7569,19 +7569,19 @@
         <v>45566</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>33457</v>
+        <v>32937</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>60408</v>
+        <v>60394</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.048804475006811</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03583482650000427</v>
+        <v>0.03527744516966075</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.06470013031179123</v>
+        <v>0.06468527263891222</v>
       </c>
     </row>
     <row r="33">
@@ -7598,19 +7598,19 @@
         <v>364322</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>340922</v>
+        <v>341714</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>388546</v>
+        <v>389630</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.6063663170196483</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5674195527758467</v>
+        <v>0.5687374639211723</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6466830869440162</v>
+        <v>0.6484870595422654</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>216</v>
@@ -7619,19 +7619,19 @@
         <v>232221</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>212786</v>
+        <v>214973</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>248289</v>
+        <v>250430</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.6977274374047013</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.6393327727556657</v>
+        <v>0.6459053055167117</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.7460046306350755</v>
+        <v>0.7524372685264649</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>569</v>
@@ -7640,19 +7640,19 @@
         <v>596544</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>568730</v>
+        <v>567675</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>626778</v>
+        <v>628805</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.6389343230546647</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.6091442518211728</v>
+        <v>0.6080139242569591</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.6713170889760677</v>
+        <v>0.6734877928153707</v>
       </c>
     </row>
     <row r="34">
